--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -40,63 +40,66 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>evil</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>fucked</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -127,30 +130,30 @@
     <t>great</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
+    <t>first</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
@@ -160,37 +163,34 @@
     <t>social</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>’</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>…</t>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>60</v>
@@ -623,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9326923076923077</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -673,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9242424242424242</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -723,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -773,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8461538461538461</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.7368421052631579</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L10">
         <v>12</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,7 +1023,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1041,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>0.5555555555555556</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.5263157894736842</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6382978723404256</v>
+        <v>0.65</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.4242424242424243</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L14">
         <v>14</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1223,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.3958333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,38 +1273,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6086956521739131</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="L16">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>14</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16">
-        <v>0.25</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>9</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5507246376811594</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C17">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.23224043715847</v>
+        <v>0.2404371584699453</v>
       </c>
       <c r="L17">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M17">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1373,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5142857142857142</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.2195121951219512</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.2033898305084746</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4642857142857143</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.1666666666666667</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4615384615384616</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -1541,13 +1541,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.1639344262295082</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1573,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4583333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.1549295774647887</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>60</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1623,13 +1623,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3928571428571428</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1641,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.1473684210526316</v>
+        <v>0.0286144578313253</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>81</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1673,13 +1673,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3333333333333333</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.03333333333333333</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>522</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1723,13 +1723,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1153846153846154</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1741,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.02932551319648094</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>331</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,63 +1773,87 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03378378378378379</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>68</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>0.02304737516005122</v>
+      </c>
+      <c r="L26">
+        <v>18</v>
+      </c>
+      <c r="M26">
+        <v>18</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.04026845637583892</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
         <v>13</v>
       </c>
-      <c r="E26">
-        <v>0.23</v>
-      </c>
-      <c r="F26">
-        <v>0.77</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
+      <c r="E27">
+        <v>0.08</v>
+      </c>
+      <c r="F27">
+        <v>0.92</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>286</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.01948051948051948</v>
-      </c>
-      <c r="L26">
-        <v>12</v>
-      </c>
-      <c r="M26">
-        <v>12</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.01920614596670935</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1841,59 +1865,33 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>766</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.01809954751131222</v>
+        <v>0.01497695852534562</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N28">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29">
-        <v>0.01670506912442396</v>
-      </c>
-      <c r="L29">
-        <v>29</v>
-      </c>
-      <c r="M29">
-        <v>29</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1707</v>
+        <v>1710</v>
       </c>
     </row>
   </sheetData>
